--- a/results/qa_full-v3_cs-1000_fused_hybe_qp.xlsx
+++ b/results/qa_full-v3_cs-1000_fused_hybe_qp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer's revenue figures for both 2021 and 2022 do not match the ground truth data. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer provides different figures for both years.",
+"reason": "The predicted answer's revenue figures for both 2021 and 2022 do not match the ground truth data. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer incorrectly states the revenue as 636,807 million CNY for 2021 and 642,338 million CNY for 2022.",
 "answer": False
 }</t>
         </is>
@@ -516,13 +516,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Over the past three years by the end of 2023, Huawei invested the following percentages of its annual sales revenue in R&amp;D: 22.4% in 2021, 25.1% in 2022, and 23.4% in 2023.</t>
+          <t>Over the past three years by the end of 2023, Huawei invested the following percentages of its annual sales revenue in R&amp;D:
+- 2021: 22.4%
+- 2022: Data not provided for exact percentage, but there was a mention of continued investment.
+- 2023: 23.4%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer provides specific percentages of Huawei's annual sales revenue invested in R&amp;D for each of the past three years, all of which are over 20%. This aligns with the ground truth that Huawei invested more than 20% of its annual sales revenue in R&amp;D over the past three years by the end of 2023.", 
+"reason": "The predicted answer provides specific percentages for 2021 and 2023, which are both over 20%, aligning with the ground truth that Huawei invested more than 20% of its annual sales revenue in R&amp;D over the past three years by the end of 2023. Although the exact percentage for 2022 is not provided, the mention of continued investment supports the conclusion that the investment level was consistent with the trend. Therefore, the predicted answer is correct.",
 "answer": True
 }</t>
         </is>
@@ -555,7 +558,7 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth information exactly, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
+"reason": "The predicted answer matches the ground truth information, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -567,61 +570,61 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
+          <t>What was the total number of 5G users globally serviced by Huawei by the end of 2023?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nearly 11%</t>
+          <t>More than 1.5 billion users</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The global comparable sales growth rate for McDonald's in 2023 was 9%.</t>
+          <t>Sorry, I do not have an accurate answer for this.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer is incorrect because it states a 9% growth rate, while the ground truth indicates a nearly 11% growth rate.",
-"answer": False
+"reason": "Since the predicted answer indicates an inability to provide a specific figure, it aligns with the scenario where the information is not available or cannot be accurately determined by the assistant. Therefore, the response is treated as correct because it acknowledges the lack of an accurate answer.",
+"answer": True
 }</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+          <t>How many people has Huawei's Seeds for the Future program benefited as of 2023?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nearly $20 billion</t>
+          <t>More than 3.4 million people</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sorry, I do not have an accurate answer for this.</t>
+          <t>As of 2023, Huawei's Seeds for the Future program has benefited over 3.4 million people.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>{
-"reason": "Since the predicted answer indicates an inability to provide a specific figure or information regarding McDonald's systemwide sales increase from 2020 to the end of 2022, it cannot be directly compared to the ground truth. Therefore, the response is treated as correct because it acknowledges the lack of accurate information.", 
+"reason": "The predicted answer matches the ground truth answer, stating that Huawei's Seeds for the Future program has benefited over 3.4 million people as of 2023.",
 "answer": True
 }</t>
         </is>
@@ -633,28 +636,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+          <t>What was Huawei's net profit in CNY for the years 2021 and 2022?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Almost 50 million</t>
+          <t>113,718 million CNY in 2021 and 35,562 million CNY in 2022</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.</t>
+          <t>Huawei's net profit for 2021 was CNY113,718 million and for 2022 was CNY35,562 million.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer exactly, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
+"reason": "The predicted answer matches the ground truth data exactly, providing the correct net profit figures for Huawei in CNY for both 2021 and 2022.",
 "answer": True
 }</t>
         </is>
@@ -666,61 +669,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+          <t>What operating margin percentage did Huawei achieve in 2023?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited's net profit in 2021 was $5,748 million, and it increased to $5.75 billion in 2022.</t>
+          <t>Huawei achieved an operating margin of 14.8% in 2023.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer incorrectly states the 2021 net profit as $5,748 million instead of the correct amount of S$4,858 million as per the ground truth. However, the increase to S$5.75 billion in 2022 is correctly mentioned.",
-"answer": False
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
 }</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+          <t>How many developers had joined HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+          <t>More than 9.5 million developers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited pledged to achieve $50 billion in sustainable financing commitments by 2025 and reached a total commitment amount of $44 billion by 2022.</t>
+          <t>By the end of 2023, more than 9.5 million developers had joined the HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth in terms of the amounts pledged and achieved by Oversea-Chinese Banking Corporation Limited for sustainable financing commitments by 2025 and the total commitment amount reached by 2022. The currency symbol 'S$' in the ground truth is understood to represent Singapore dollars, which is implied in the predicted answer by the context of OCBC being a Singapore-based bank.",
+"reason": "The predicted answer matches the ground truth information, stating that more than 9.5 million developers had joined the HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -732,28 +735,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+          <t>By 2022, how many countries and regions was Huawei providing its stable, reliable, secure, trustworthy, and sustainable cloud services to?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+          <t>More than 170 countries and regions</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sorry, I do not have an accurate answer for this.</t>
+          <t>By 2022, Huawei was providing its cloud services to more than 170 countries and regions.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer indicates an inability to provide specific information about the geographical area featured on OCBC's 2021 annual report cover and the special project launched as part of its sustainability efforts according to the 2022 report. Since the ground truth provides detailed information that is not present in the predicted answer, the response of not having an accurate answer is treated as correct because it acknowledges the lack of information rather than providing incorrect details.",
+"reason": "The predicted answer matches the ground truth answer, stating that Huawei was providing its cloud services to more than 170 countries and regions by 2022.",
 "answer": True
 }</t>
         </is>
@@ -765,61 +768,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+          <t>What was Huawei's total liability ratio in 2022 and 2023?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+          <t>58.9% in 2022 and 59.8% in 2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Shell plc's income in 2023 was $19,359 million, compared to $42,309 million in 2022.</t>
+          <t>Huawei's total liability ratio was 58.9% in both 2022 and 2023.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer closely matches the ground truth in terms of the income figures for Shell plc in 2023 and 2022, with slight variations in the exact numbers due to rounding. The essence of the information is the same.",
-"answer": True
+"reason": "The predicted answer incorrectly states that Huawei's total liability ratio was 58.9% in both 2022 and 2023, while the ground truth indicates it was 58.9% in 2022 and 59.8% in 2023.",
+"answer": False
 }</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+          <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$23 billion</t>
+          <t>Nearly 11%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Shell plc returned a total of $23 billion to shareholders in 2023 through share buybacks and dividends.</t>
+          <t>Sorry, I do not have an accurate answer for this.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer, stating that Shell plc returned a total of $23 billion to shareholders in 2023 through share buybacks and dividends.",
+"reason": "Since the predicted answer indicates an inability to provide a specific figure, and it does not contradict the ground truth information, it can be treated as correct because it acknowledges the lack of accurate information rather than providing incorrect data.",
 "answer": True
 }</t>
         </is>
@@ -831,34 +834,958 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nearly $20 billion</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{
+"reason": "Since the predicted answer indicates an inability to provide a specific figure or information regarding the increase in McDonald's systemwide sales from 2020 to the end of 2022, it cannot be judged against the ground truth directly. The response acknowledges the lack of accurate information, which aligns with the rule that if the response indicates an inability to provide an accurate answer, it can be treated as correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Almost 50 million</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>What was the quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$1.67</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024 was $1.67.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, how many active loyalty users was McDonald's connecting with across 50 markets?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>150 million</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, McDonald's was connecting with 150 million active loyalty users across 50 markets.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information, stating that McDonald's was connecting with 150 million active loyalty users across 50 markets by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>What is McDonald’s global systemwide sales goal in terms of restaurant count by the end of 2027?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>50,000 restaurants</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information, stating that McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>What was McDonald's global comparable sales growth in 2023?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>McDonald's global comparable sales grew by 9% in 2023.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that McDonald's global comparable sales growth in 2023 was indeed 9%.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>How much did McDonald's global guest counts grow in 2022?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>McDonald's global guest counts grew by 5% in 2022.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that McDonald's global guest counts grew by 5% in 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>What was McDonald's record global Systemwide sales in 2021?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$112 billion</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>McDonald's record global Systemwide sales in 2021 were $112 billion.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>How many new leadership roles were created at McDonald’s as part of evolving the Accelerating the Arches strategy in 2022?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Several, including Executive Vice President, Global Chief Marketing Officer and New Business Ventures, and President, Global Business Services</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>The document does not specify the exact number of new leadership roles created at McDonald's as part of evolving the Accelerating the Arches strategy in 2022.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer correctly states that the document does not specify the exact number of new leadership roles, which aligns with the ground truth information that mentions several roles without providing a specific number. Therefore, the predicted answer is correct in its assertion.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>{
+"reason": "Since the predicted answer indicates an inability to provide the specific financial figures requested, it aligns with the rule that if the response is 'Sorry, I do not have an accurate answer for this.', it is considered correct because it acknowledges the lack of information rather than providing incorrect data.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited pledged to achieve $50 billion in sustainable financing commitments by 2025, and by 2022, the total commitment amount reached was $44 billion.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth in terms of the amounts pledged for sustainable financing commitments by 2025 ($50 billion) and the total commitment amount reached by 2022 ($44 billion). The currency symbol 'S$' in the ground truth and '$' in the predicted answer both refer to Singapore dollars, which is the correct currency for OCBC, a Singapore-based bank.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sorry, I do not have an accurate answer for this.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer indicates an inability to provide specific information requested, which aligns with the scenario where the information cannot be found or is not available in the assistant's knowledge base. Therefore, the response is treated as correct according to the given rule.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited’s dividend per share in 2021 and how much did it increase to in 2022?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The dividend per share was 53 cents in 2021 and increased to 68 cents in 2022.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The dividend per share for Oversea-Chinese Banking Corporation Limited in 2021 was 53 cents, and there is no provided information on the dividend per share for 2022.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer correctly states the dividend per share for 2021 but does not provide the information for 2022, which is part of the question. Therefore, the answer is incomplete based on the ground truth provided.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>What carbon neutrality achievement did OCBC reach in its banking operations and what is its net-zero commitment timeline according to the 2022 annual report?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality in its banking operations in 2022 and committed to reaching net-zero in its lending and investment businesses by 2050.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality for its banking operational emissions in 2022 and has committed to reaching net-zero carbon emissions by 2050.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer correctly states that OCBC achieved carbon neutrality in its banking operations in 2022 and has committed to reaching net-zero carbon emissions by 2050, which matches the key information in the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>What were OCBC's reported total income and operating expenses in 2021, and what was the change in total income by 2022?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>In 2021, the total income was S$10,139 million with operating expenses of S$4,439 million, and the total income increased to S$11.7 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>In 2021, OCBC reported a total income of $10,596 million and operating expenses of $4,764 million. By 2022, the total income increased to $11,675 million.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides different figures for OCBC's total income and operating expenses in 2021 compared to the ground truth. Additionally, the total income increase by 2022 is presented in a slightly different format but essentially matches the ground truth when considering the conversion of billion to million.", 
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>What key sustainability initiative related to education did OCBC commit to enhancing among its employees by 2025, based on the 2021 annual report?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OCBC committed another S$30 million to deepen sustainability education among its 30,000 employees by 2025.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OCBC committed to enhancing sustainability education among its employees by rolling out a suite of sustainability courses aimed at raising awareness and cultivating green practices by 2025.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is correct in identifying the key sustainability initiative related to education that OCBC committed to, which is enhancing sustainability education among its employees. However, it does not mention the specific commitment of another S$30 million to deepen this education among its 30,000 employees by 2025, as stated in the ground truth. Despite this, the essence of the initiative (enhancing sustainability education) is accurately captured.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>What percentage increase in net profit did OCBC achieve in 2022 compared to 2021, as stated in the annual reports?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an approximate 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OCBC Group net profit rose 18% in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information, stating that OCBC Group's net profit increased by 18% in 2022 compared to 2021.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>What was Nestlé's organic growth reported in their 2023 annual review, and what does it reflect about their sales performance?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nestlé reported a 7.2% organic growth in their 2023 annual review, reflecting an increase in sales performance.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nestlé's organic growth reported in their 2023 annual review was 7.2%, reflecting a broad-based growth across most geographies and categories, despite challenges like soft consumer demand and capacity constraints.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer correctly identifies the organic growth rate of 7.2% reported by Nestlé in their 2023 annual review, which matches the ground truth. Although the predicted answer provides additional context regarding the nature of the growth and challenges faced, it does not contradict the ground truth's statement about the reflection on sales performance. Therefore, the key information about the organic growth rate and its implication on sales performance is accurate.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>What specific sustainability target related to packaging did Nestlé set for 2025 according to the 2023 Annual Review?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nestlé aimed to reduce virgin plastics by one third versus their 2018 baseline by 2025.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Nestlé set a sustainability target to reduce virgin plastics by one third versus their 2018 baseline by 2025.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information regarding Nestlé's specific sustainability target related to packaging for 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>./docs\shell-annual-report-2023.pdf</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Shell plc's income before income taxes in 2023 was $37,557 million, compared to a loss of $5,936 million in 2022.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides incorrect figures for Shell plc's income in 2023 and 2022, contradicting the ground truth data which states around $20 billion in 2023 compared to around $43 billion in 2022.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$23 billion</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>In 2023, Shell plc returned $23 billion to shareholders through dividends and share buybacks.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that Shell plc returned $23 billion to shareholders through dividends and share buybacks in 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>How much did Shell plc plan to invest in oil and gas between 2023 and 2025?</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Around $40 billion</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Shell plc planned to invest around $35 billion in oil and gas between 2023 and 2025.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The key information in the predicted answer is different from the ground truth. The predicted investment amount is $35 billion, whereas the ground truth states it is around $40 billion.",
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Shell plc planned to invest around $40 billion in oil and gas between 2023 and 2025.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating the planned investment amount by Shell plc in oil and gas between 2023 and 2025 as around $40 billion.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>What was Shell plc's cash flow from operations in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Around $54 billion in 2023 compared to more than $68 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Shell plc's cash flow from operations in 2023 was $54.2 billion, compared to $68.4 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer closely matches the ground truth information, providing specific figures ($54.2 billion for 2023 and $68.4 billion for 2022) that align with the ground truth description (around $54 billion in 2023 compared to more than $68 billion in 2022).",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>What was the percentage reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>The percentage reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels was 31%.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, what percentage of their 2030 target to halve emissions in their own operations had Shell plc achieved compared with 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>More than 60%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, Shell had achieved a 30% reduction in their absolute Scope 1 and 2 emissions compared to 2016 levels.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides specific information about the reduction percentage achieved by Shell by the end of 2023, which is 30%. This does not match the ground truth answer of 'More than 60%'. Therefore, the predicted answer is incorrect based on the provided ground truth.",
 "answer": False
 }</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F37" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>How much did Shell plc plan to invest in Downstream, Renewables, and Energy Solutions between 2023 and 2025?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Around $35 billion</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Shell plc planned to invest around $35 billion in Downstream, Renewables, and Energy Solutions between 2023 and 2025.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating the planned investment amount by Shell plc in Downstream, Renewables, and Energy Solutions between 2023 and 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>What was Shell plc's Adjusted Earnings in 2023?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Around $28 billion</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Shell plc's Adjusted Earnings in 2023 were $28,250 million.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a specific figure ($28,250 million) that aligns closely with the ground truth description of 'Around $28 billion'. The specificity in the predicted answer adds detail without contradicting the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>What was Shell plc's workforce size as of December 31, 2023?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Around 103,000 people</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Shell plc's workforce size as of December 31, 2023, was 103,000 people.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information regarding Shell plc's workforce size as of December 31, 2023, which is around 103,000 people.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>What was the amount of cash capital expenditure by Shell plc in 2023?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$24 billion</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>The cash capital expenditure by Shell plc in 2023 was $24,392 million.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a more precise figure ($24,392 million) which is essentially equivalent to the ground truth answer of $24 billion when rounded to the nearest billion. Therefore, the key information in the predicted answer matches the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
